--- a/Feature-Analysis/Resize Feature/s_21_right.xlsx
+++ b/Feature-Analysis/Resize Feature/s_21_right.xlsx
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>737791.61700231477</v>
+        <v>738157.61700231477</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>737791.61741898151</v>
+        <v>738157.61741898151</v>
       </c>
       <c r="C3" s="0">
         <v>36.000005900859833</v>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>737791.61773148144</v>
+        <v>738157.61773148144</v>
       </c>
       <c r="C4" s="0">
         <v>63.000000268220901</v>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0">
-        <v>737791.61807870376</v>
+        <v>738157.61807870376</v>
       </c>
       <c r="C5" s="0">
         <v>93.000008538365364</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>737791.61843749997</v>
+        <v>738157.61843749997</v>
       </c>
       <c r="C6" s="0">
         <v>124.00000132620335</v>
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>737791.61877314816</v>
+        <v>738157.61877314816</v>
       </c>
       <c r="C7" s="0">
         <v>153.00000496208668</v>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0">
-        <v>737791.61913194449</v>
+        <v>738157.61913194449</v>
       </c>
       <c r="C8" s="0">
         <v>184.00000780820847</v>
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0">
-        <v>737791.61947916669</v>
+        <v>738157.61947916669</v>
       </c>
       <c r="C9" s="0">
         <v>214.00000602006912</v>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0">
-        <v>737791.61982638889</v>
+        <v>738157.61982638889</v>
       </c>
       <c r="C10" s="0">
         <v>244.00000423192978</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0">
-        <v>737791.6201736111</v>
+        <v>738157.6201736111</v>
       </c>
       <c r="C11" s="0">
         <v>274.00000244379044</v>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0">
-        <v>737791.62053240743</v>
+        <v>738157.62053240743</v>
       </c>
       <c r="C12" s="0">
         <v>305.00000528991222</v>
@@ -9332,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>737791.62086805562</v>
+        <v>738157.62086805562</v>
       </c>
       <c r="C13" s="0">
         <v>334.00000892579556</v>
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="0">
-        <v>737791.62122685183</v>
+        <v>738157.62122685183</v>
       </c>
       <c r="C14" s="0">
         <v>365.00000171363354</v>
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="0">
-        <v>737791.62156250002</v>
+        <v>738157.62156250002</v>
       </c>
       <c r="C15" s="0">
         <v>394.00000534951687</v>
@@ -11417,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0">
-        <v>737791.62190972222</v>
+        <v>738157.62190972222</v>
       </c>
       <c r="C16" s="0">
         <v>424.00000356137753</v>
@@ -12112,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0">
-        <v>737791.62228009256</v>
+        <v>738157.62228009256</v>
       </c>
       <c r="C17" s="0">
         <v>456.00000098347664</v>
@@ -12807,7 +12807,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="0">
-        <v>737791.62259259261</v>
+        <v>738157.62259259261</v>
       </c>
       <c r="C18" s="0">
         <v>483.00000540912151</v>
@@ -13502,7 +13502,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="0">
-        <v>737791.62297453708</v>
+        <v>738157.62297453708</v>
       </c>
       <c r="C19" s="0">
         <v>516.00000746548176</v>
@@ -14197,7 +14197,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="0">
-        <v>737791.62332175928</v>
+        <v>738157.62332175928</v>
       </c>
       <c r="C20" s="0">
         <v>546.00000567734241</v>
@@ -14892,7 +14892,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="0">
-        <v>737791.62364583334</v>
+        <v>738157.62364583334</v>
       </c>
       <c r="C21" s="0">
         <v>574.00000467896461</v>
@@ -15587,7 +15587,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="0">
-        <v>737791.62400462967</v>
+        <v>738157.62400462967</v>
       </c>
       <c r="C22" s="0">
         <v>605.0000075250864</v>
@@ -16282,7 +16282,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="0">
-        <v>737791.62436342589</v>
+        <v>738157.62436342589</v>
       </c>
       <c r="C23" s="0">
         <v>636.00000031292439</v>
@@ -16977,7 +16977,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="0">
-        <v>737791.62490740744</v>
+        <v>738157.62490740744</v>
       </c>
       <c r="C24" s="0">
         <v>683.00000689923763</v>
@@ -17672,7 +17672,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="0">
-        <v>737791.6252893518</v>
+        <v>738157.6252893518</v>
       </c>
       <c r="C25" s="0">
         <v>715.99999889731407</v>
@@ -18367,7 +18367,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="0">
-        <v>737791.62565972225</v>
+        <v>738157.62565972225</v>
       </c>
       <c r="C26" s="0">
         <v>748.00000637769699</v>
@@ -19062,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="0">
-        <v>737791.62601851847</v>
+        <v>738157.62601851847</v>
       </c>
       <c r="C27" s="0">
         <v>778.99999916553497</v>
@@ -19757,7 +19757,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="0">
-        <v>737791.62601851847</v>
+        <v>738157.62601851847</v>
       </c>
       <c r="C28" s="0">
         <v>778.99999916553497</v>
@@ -20452,7 +20452,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="0">
-        <v>737791.62666666671</v>
+        <v>738157.62666666671</v>
       </c>
       <c r="C29" s="0">
         <v>835.00000722706318</v>
@@ -21147,7 +21147,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="0">
-        <v>737791.62703703705</v>
+        <v>738157.62703703705</v>
       </c>
       <c r="C30" s="0">
         <v>867.00000464916229</v>
@@ -21842,7 +21842,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="0">
-        <v>737791.62737268524</v>
+        <v>738157.62737268524</v>
       </c>
       <c r="C31" s="0">
         <v>896.00000828504562</v>
@@ -22537,7 +22537,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="0">
-        <v>737791.62771990744</v>
+        <v>738157.62771990744</v>
       </c>
       <c r="C32" s="0">
         <v>926.00000649690628</v>
@@ -23232,7 +23232,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="0">
-        <v>737791.62806712964</v>
+        <v>738157.62806712964</v>
       </c>
       <c r="C33" s="0">
         <v>956.00000470876694</v>
@@ -23927,7 +23927,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="0">
-        <v>737791.62848379626</v>
+        <v>738157.62848379626</v>
       </c>
       <c r="C34" s="0">
         <v>992.00000055134296</v>
@@ -24622,7 +24622,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="0">
-        <v>737791.62848379626</v>
+        <v>738157.62848379626</v>
       </c>
       <c r="C35" s="0">
         <v>992.00000055134296</v>
@@ -25317,7 +25317,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="0">
-        <v>737791.62912037037</v>
+        <v>738157.62912037037</v>
       </c>
       <c r="C36" s="0">
         <v>1047.00000397861</v>
@@ -26012,7 +26012,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="0">
-        <v>737791.62946759257</v>
+        <v>738157.62946759257</v>
       </c>
       <c r="C37" s="0">
         <v>1077.0000021904707</v>
@@ -26707,7 +26707,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="0">
-        <v>737791.62981481478</v>
+        <v>738157.62981481478</v>
       </c>
       <c r="C38" s="0">
         <v>1107.0000004023314</v>
@@ -27402,7 +27402,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="0">
-        <v>737791.63015046297</v>
+        <v>738157.63015046297</v>
       </c>
       <c r="C39" s="0">
         <v>1136.0000040382147</v>
@@ -28097,7 +28097,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="0">
-        <v>737791.6305092593</v>
+        <v>738157.6305092593</v>
       </c>
       <c r="C40" s="0">
         <v>1167.0000068843365</v>
